--- a/Documents/Management/Product Backlog.xlsx
+++ b/Documents/Management/Product Backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>FTID</t>
   </si>
@@ -90,6 +90,90 @@
   </si>
   <si>
     <t>Matching Tool (black-box sub system) (to be defined)</t>
+  </si>
+  <si>
+    <t>Nghiên cứu kỹ thuật phần mềm</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Phát triển kiến trúc API</t>
+  </si>
+  <si>
+    <t>Build decision tree</t>
+  </si>
+  <si>
+    <t>Build giải pháp tích hợp SQL với MDX</t>
+  </si>
+  <si>
+    <t>Taxonomy</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Kết hợp so khớp tag và độ tương quan giữa các tag</t>
+  </si>
+  <si>
+    <t>Kiến trúc lưu trữ các cây với nhau</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện website</t>
+  </si>
+  <si>
+    <t>Hoàn thiện Edit Profile</t>
+  </si>
+  <si>
+    <t>Hoàn thiện Edit Experience</t>
+  </si>
+  <si>
+    <t>Hoàn thiện Edit Attribute Tag (Skill/Qualification)</t>
+  </si>
+  <si>
+    <t>Hoàn thiện các Job Zoom Profile</t>
+  </si>
+  <si>
+    <t>Jobseeker quản lý profile</t>
+  </si>
+  <si>
+    <t>Apply công việc</t>
+  </si>
+  <si>
+    <t>Customize profile sao cho phù hợp</t>
+  </si>
+  <si>
+    <t>Employer quản lý công việc</t>
+  </si>
+  <si>
+    <t>Employer quản lý ứng viên được chọn</t>
+  </si>
+  <si>
+    <t>Search dựa trên Matching Tool</t>
+  </si>
+  <si>
+    <t>jobseeker apply công việc</t>
+  </si>
+  <si>
+    <t>Demo website</t>
+  </si>
+  <si>
+    <t>Visual Demo</t>
+  </si>
+  <si>
+    <t>Cây Job Seeker Profile</t>
+  </si>
+  <si>
+    <t>Cây Job Description</t>
+  </si>
+  <si>
+    <t>Cây matching</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Posting Job Description</t>
   </si>
 </sst>
 </file>
@@ -182,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,65 +290,77 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,239 +663,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="B1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="45.42578125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="79.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="22"/>
+    <col min="3" max="3" width="45.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="79.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="27" t="s">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:7" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="19"/>
+      <c r="C7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="24" t="s">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="24" t="s">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="24" t="s">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="24" t="s">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="8" t="s">
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="14" t="s">
+      <c r="E12" s="6"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="10" t="s">
+      <c r="E13" s="6"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="28" t="s">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="21"/>
+      <c r="C15" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="16" t="s">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="21"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="27" t="s">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="15" t="s">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="15" t="s">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="28" t="s">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+      <c r="C20" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="27" t="s">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="32"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="32"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="32"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="32"/>
+      <c r="C42" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="32"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="32"/>
+      <c r="C44" s="30"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="32"/>
+      <c r="C45" s="30"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="32"/>
+      <c r="C46" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="32"/>
+      <c r="C47" s="30"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="32"/>
+      <c r="C48" s="30"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="32"/>
+      <c r="C49" s="30"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="32"/>
+      <c r="C50" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="32"/>
+      <c r="C51" s="30"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="32"/>
+      <c r="C52" s="30"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="32"/>
+      <c r="C53" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="32"/>
+      <c r="D55" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="32"/>
+      <c r="D56" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="16">
+    <mergeCell ref="B38:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
